--- a/by_/xls/cluster_names.xlsx
+++ b/by_/xls/cluster_names.xlsx
@@ -38,9 +38,6 @@
     <t>oakland</t>
   </si>
   <si>
-    <t>downtown-east</t>
-  </si>
-  <si>
     <t>southside</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>homewood</t>
+  </si>
+  <si>
+    <t>console energy center</t>
   </si>
 </sst>
 </file>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/by_/xls/cluster_names.xlsx
+++ b/by_/xls/cluster_names.xlsx
@@ -24,96 +24,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>cluster</t>
   </si>
   <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>oakland</t>
+  </si>
+  <si>
+    <t>southside</t>
+  </si>
+  <si>
+    <t>northside-pnc park</t>
+  </si>
+  <si>
+    <t>northside-heinz field</t>
+  </si>
+  <si>
+    <t>strip district</t>
+  </si>
+  <si>
+    <t>terrace village</t>
+  </si>
+  <si>
+    <t>cmu</t>
+  </si>
+  <si>
+    <t>station square</t>
+  </si>
+  <si>
+    <t>overbrook</t>
+  </si>
+  <si>
+    <t>carnegie borough</t>
+  </si>
+  <si>
+    <t>beechview</t>
+  </si>
+  <si>
+    <t>homestead</t>
+  </si>
+  <si>
+    <t>hazelwood</t>
+  </si>
+  <si>
+    <t>upper st clair township-mount lebanon</t>
+  </si>
+  <si>
+    <t>shaler township</t>
+  </si>
+  <si>
+    <t>homewood</t>
+  </si>
+  <si>
+    <t>console energy center</t>
+  </si>
+  <si>
+    <t>pittsburgh tech center</t>
+  </si>
+  <si>
+    <t>shadyside-east liberty</t>
+  </si>
+  <si>
+    <t>southside-brownsville &amp; allington</t>
+  </si>
+  <si>
+    <t>point state</t>
+  </si>
+  <si>
+    <t>lawrenceville-liberty &amp; bloomfield</t>
+  </si>
+  <si>
+    <t>perry north-ross township</t>
+  </si>
+  <si>
+    <t>shadyside-walnut</t>
+  </si>
+  <si>
+    <t>perry north</t>
+  </si>
+  <si>
+    <t>foresthills borough</t>
+  </si>
+  <si>
+    <t>homestead-waterfront</t>
+  </si>
+  <si>
+    <t>middle hill</t>
+  </si>
+  <si>
+    <t>carrick</t>
+  </si>
+  <si>
+    <t>highland park</t>
+  </si>
+  <si>
+    <t>perry south</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>oakland</t>
-  </si>
-  <si>
-    <t>southside</t>
-  </si>
-  <si>
-    <t>northside-pnc park</t>
-  </si>
-  <si>
-    <t>northside-heinz field</t>
-  </si>
-  <si>
-    <t>strip district</t>
-  </si>
-  <si>
-    <t>brentwood borough</t>
-  </si>
-  <si>
-    <t>terrace village</t>
-  </si>
-  <si>
-    <t>oakland-north</t>
-  </si>
-  <si>
-    <t>cmu</t>
-  </si>
-  <si>
-    <t>oakland-south</t>
-  </si>
-  <si>
-    <t>southside works</t>
-  </si>
-  <si>
-    <t>station square</t>
-  </si>
-  <si>
-    <t>overbrook</t>
-  </si>
-  <si>
-    <t>east liberty</t>
-  </si>
-  <si>
-    <t>lowedr lawrenceville</t>
-  </si>
-  <si>
-    <t>carnegie borough</t>
-  </si>
-  <si>
-    <t>shadyside</t>
-  </si>
-  <si>
-    <t>beechview</t>
-  </si>
-  <si>
-    <t>oakland-west</t>
-  </si>
-  <si>
-    <t>northside-national aviary</t>
-  </si>
-  <si>
-    <t>homestead</t>
-  </si>
-  <si>
-    <t>allentown-knoxville-southside slopes</t>
-  </si>
-  <si>
-    <t>hazelwood</t>
-  </si>
-  <si>
-    <t>upper st clair township-mount lebanon</t>
-  </si>
-  <si>
-    <t>shaler township</t>
-  </si>
-  <si>
-    <t>homewood</t>
-  </si>
-  <si>
-    <t>console energy center</t>
+    <t>#_tweet</t>
   </si>
 </sst>
 </file>
@@ -129,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +154,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,9 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,244 +468,696 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>40707</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>40707</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3787</v>
+      </c>
+      <c r="M2" s="2">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2025</v>
+      </c>
+      <c r="P2" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>34123</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>34123</v>
+      </c>
+      <c r="J3" s="2">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3643</v>
+      </c>
+      <c r="M3" s="2">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1890</v>
+      </c>
+      <c r="P3" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>17343</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>17343</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2995</v>
+      </c>
+      <c r="M4" s="2">
+        <v>18</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1768</v>
+      </c>
+      <c r="P4" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>14483</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>14483</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2513</v>
+      </c>
+      <c r="M5" s="2">
+        <v>19</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1742</v>
+      </c>
+      <c r="P5" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>11300</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11300</v>
+      </c>
+      <c r="J6" s="2">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2362</v>
+      </c>
+      <c r="M6" s="2">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1606</v>
+      </c>
+      <c r="P6" s="2">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>8274</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8274</v>
+      </c>
+      <c r="J7" s="2">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2280</v>
+      </c>
+      <c r="M7" s="2">
+        <v>21</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1487</v>
+      </c>
+      <c r="P7" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="2">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>6821</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6821</v>
+      </c>
+      <c r="J8" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2278</v>
+      </c>
+      <c r="M8" s="2">
+        <v>22</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1348</v>
+      </c>
+      <c r="P8" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4731</v>
+      </c>
+      <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4731</v>
+      </c>
+      <c r="J9" s="2">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2094</v>
+      </c>
+      <c r="M9" s="2">
+        <v>23</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1266</v>
+      </c>
+      <c r="P9" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C13">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C14">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C16">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C26">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C28">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
